--- a/biology/Zoologie/Gephyrellula_violacea/Gephyrellula_violacea.xlsx
+++ b/biology/Zoologie/Gephyrellula_violacea/Gephyrellula_violacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gephyrellula violacea, unique représentant du genre Gephyrellula, est une espèce d'araignées aranéomorphes de la famille des Philodromidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gephyrellula violacea, unique représentant du genre Gephyrellula, est une espèce d'araignées aranéomorphes de la famille des Philodromidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1]. Elle se rencontre au Pará, au Tocantins, au Sergipe, au Bahia, au Minas Gerais, au Rio de Janeiro, au São Paulo, au Mato Grosso do Sul, au Paraná, au Santa Catarina, au Rio Grande do Sul.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre au Pará, au Tocantins, au Sergipe, au Bahia, au Minas Gerais, au Rio de Janeiro, au São Paulo, au Mato Grosso do Sul, au Paraná, au Santa Catarina, au Rio Grande do Sul.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 3,1 à 4,2 mm et les femelles de 3,5 à 6,2 mm[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 3,1 à 4,2 mm et les femelles de 3,5 à 6,2 mm
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Strand, 1932 : Miscellanea nomenklatorica zoologica et palaeontologica, III. Folia Zoologica et Hydrobiologica, vol. 4, p. 133-147.
 Mello-Leitão, 1918 : Un genero novo de Thomisidas da sub-familia Philodrominae. Revista da Sociedade Brasileira de Sciencias, vol. 2, p. 121-123.</t>
